--- a/Kapde wale.xlsx
+++ b/Kapde wale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgupta504\OneDrive - DXC Production\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anguar\New Project\Shopaholic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{EC7A63B8-0807-4C93-B9A1-83FF77B87CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B54FCD1F-E4C4-4414-B693-1F4CED71DC46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5047797-076E-4898-BB04-E7780154DACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2BEA0186-EEA2-479F-8B08-E9AAAAF428B3}"/>
+    <workbookView xWindow="1872" yWindow="912" windowWidth="17280" windowHeight="9072" xr2:uid="{2BEA0186-EEA2-479F-8B08-E9AAAAF428B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Shubham</t>
   </si>
   <si>
-    <t>TitleBar</t>
-  </si>
-  <si>
     <t>DropDown of TitleBar</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Base Website</t>
+  </si>
+  <si>
+    <t>TitleBar,navbar</t>
   </si>
 </sst>
 </file>
@@ -172,17 +172,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7BE5D-6428-4642-85AE-2D3D238DE711}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,24 +518,24 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
@@ -546,98 +546,98 @@
         <v>3</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="O2" t="s">
         <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="O3" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="O3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="O4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="O4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="O5" t="s">
         <v>8</v>
       </c>
@@ -646,381 +646,408 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
@@ -1037,70 +1064,28 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B2:E6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C46102620380194BBC2827C688B4FBD6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9cea792d614b533ffb45053062dbfe0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="696bf2d6-eb8c-4b2c-ac49-99f677fe0b64" xmlns:ns4="a398e48e-12e0-4e55-9faf-feb90dbc03cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7376f644bcc0d608b77c8d74aac957e4" ns3:_="" ns4:_="">
     <xsd:import namespace="696bf2d6-eb8c-4b2c-ac49-99f677fe0b64"/>
@@ -1303,24 +1288,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54DA6353-F6E5-44E9-BA21-B741F8E504A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B976B2-C354-40F7-864D-09D40B435C08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A218D3-E25D-4CCB-8AA9-4740908776BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1337,4 +1320,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B976B2-C354-40F7-864D-09D40B435C08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54DA6353-F6E5-44E9-BA21-B741F8E504A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>